--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1072562.417878774</v>
+        <v>1021242.756534407</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>189902.9539564206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728818</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>119.7578097448234</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>138.5973240860331</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.2634979541055</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>353.5759586385877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>98.9246573280012</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>90.65425976268406</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>44.74654572587418</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>301.1573265985382</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.94540487739351</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>279.0097760062007</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>154.9909400768839</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>21.06378739765032</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>162.3364906735236</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>223.1498336210772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>158.9635420548244</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>38.34211871174958</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>234.4871813790492</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>56.59888733706514</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.31785343913986</v>
+        <v>108.2198021316253</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.225761208025604</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>91.82580793753515</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>355.546756558266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>291.9336040031828</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>11.0042946710585</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>29.43357108566596</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16.88986550434929</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>145.9540087152242</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>79.49282700064643</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>156.5301684764397</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>81.12200652863805</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V40" t="n">
-        <v>155.211488636581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>221.0021786982957</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.305787840852963</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>43.31785343913986</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>360.9888294615353</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>339.0399185806816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.5674858910851</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>952.5674858910851</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2400.004118741662</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.941231398091</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>1716.172576127977</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="X2" t="n">
-        <v>1342.706817866897</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="Y2" t="n">
-        <v>952.5674858910851</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174723</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1309.714918859356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2597.225194727312</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2597.225194727312</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2343.463409365404</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1095.753074569373</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C8" t="n">
-        <v>1095.753074569373</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.753074569373</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>709.9648219711289</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>298.9789171815214</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>298.9789171815214</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2651.950559981986</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2651.950559981986</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2651.950559981986</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.753074569373</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="9">
@@ -4865,13 +4865,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="E10" t="n">
-        <v>698.7120650600561</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>625.3727659270879</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C11" t="n">
-        <v>625.3727659270879</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="D11" t="n">
-        <v>625.3727659270879</v>
+        <v>1308.38243500963</v>
       </c>
       <c r="E11" t="n">
-        <v>625.3727659270879</v>
+        <v>922.5941824113856</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>511.6082776217781</v>
       </c>
       <c r="G11" t="n">
         <v>207.4089578252748</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2545.20585116751</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2326.571184139573</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2072.809398777664</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>1741.746511434094</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W11" t="n">
-        <v>1388.97785616398</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X11" t="n">
-        <v>1015.5120979029</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y11" t="n">
-        <v>625.3727659270879</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
@@ -5220,22 +5220,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
         <v>53.94298182036445</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.915471247702</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D14" t="n">
-        <v>1491.915471247702</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>384.396046438932</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>384.396046438932</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5317,13 +5317,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5463,19 +5463,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
         <v>53.94298182036445</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2323.103882821189</v>
+        <v>1735.60643674436</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1366.643919803948</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
         <v>1210.087414675782</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5530,7 +5530,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P17" t="n">
         <v>2544.691559791253</v>
@@ -5545,22 +5545,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U17" t="n">
-        <v>2675.872538091303</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V17" t="n">
-        <v>2675.872538091303</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W17" t="n">
-        <v>2323.103882821189</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.103882821189</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y17" t="n">
-        <v>2323.103882821189</v>
+        <v>1735.60643674436</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5597,10 +5597,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
         <v>1313.210296315296</v>
@@ -5679,40 +5679,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W19" t="n">
-        <v>502.7251118619119</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
         <v>274.7355609638946</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2310.5492509541</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C20" t="n">
-        <v>1941.586734013689</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D20" t="n">
-        <v>1583.321035406938</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E20" t="n">
-        <v>1197.532782808694</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>786.5468780190865</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>368.5830699172734</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224079</v>
@@ -5767,37 +5767,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2360.40236893358</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2106.640583571672</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1775.577696228101</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1775.577696228101</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1402.111937967022</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>1011.97260599121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M21" t="n">
         <v>1237.953133915166</v>
@@ -5852,22 +5852,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C22" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D22" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>541.2529128004671</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>541.2529128004671</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U22" t="n">
-        <v>541.2529128004671</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V22" t="n">
-        <v>541.2529128004671</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W22" t="n">
-        <v>541.2529128004671</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X22" t="n">
-        <v>541.2529128004671</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y22" t="n">
-        <v>541.2529128004671</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037878</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>807.393450832883</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4075460432754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036446</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6004,7 +6004,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P23" t="n">
         <v>2544.691559791253</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6068,19 +6068,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.69838933464715</v>
+        <v>332.1920961943575</v>
       </c>
       <c r="C25" t="n">
-        <v>97.69838933464715</v>
+        <v>163.2559132664506</v>
       </c>
       <c r="D25" t="n">
-        <v>97.69838933464715</v>
+        <v>163.2559132664506</v>
       </c>
       <c r="E25" t="n">
-        <v>97.69838933464715</v>
+        <v>163.2559132664506</v>
       </c>
       <c r="F25" t="n">
-        <v>97.69838933464715</v>
+        <v>163.2559132664506</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036446</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="X25" t="n">
-        <v>500.139433308417</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="Y25" t="n">
-        <v>279.3468541648868</v>
+        <v>513.8405610245973</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.959449965771</v>
+        <v>1139.146815977589</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253592</v>
+        <v>770.1842990371772</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>770.1842990371772</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>384.396046438933</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>384.396046438933</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N26" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P26" t="n">
         <v>2544.691559791253</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2669.933035536899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2669.933035536899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2669.933035536899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2669.933035536899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2317.164380266785</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X26" t="n">
-        <v>1943.698622005704</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y26" t="n">
-        <v>1553.559290029893</v>
+        <v>1525.746656041711</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005475</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>473.4444960005475</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1937.083492693021</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C29" t="n">
-        <v>1568.120975752609</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D29" t="n">
-        <v>1209.855277145859</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E29" t="n">
-        <v>824.0670245476144</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>413.0811197580069</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y29" t="n">
-        <v>2323.683332757143</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="W31" t="n">
-        <v>2153.047432775375</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>285.8510101265799</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>65.05843098304982</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.409918978289</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.447402037877</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.181703431127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>807.3934508328825</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6715,37 +6715,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.418211133712</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.418211133712</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.418211133712</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.418211133712</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1983.586668520027</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.009759042411</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M33" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>71.00345202677789</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>71.00345202677789</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>71.00345202677789</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S34" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570176</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.527073573122</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="X35" t="n">
-        <v>1557.098781941583</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="Y35" t="n">
-        <v>1166.959449965771</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C37" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="X37" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y37" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.1126181035247</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C38" t="n">
-        <v>494.150101163113</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="D38" t="n">
-        <v>135.8844025563625</v>
+        <v>783.484047216421</v>
       </c>
       <c r="E38" t="n">
-        <v>135.8844025563625</v>
+        <v>783.484047216421</v>
       </c>
       <c r="F38" t="n">
-        <v>135.8844025563625</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>135.8844025563625</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7189,7 +7189,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
         <v>2544.691559791253</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
         <v>1313.210296315296</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V40" t="n">
-        <v>571.3497027553424</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755379</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>1106.127218649458</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>695.14131385985</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>277.1775057580369</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2690.779608350695</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2690.779608350695</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W41" t="n">
-        <v>2338.01095308058</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X41" t="n">
-        <v>1964.5451948195</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.69838933464715</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>97.69838933464715</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>97.69838933464715</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>97.69838933464715</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>97.69838933464715</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>279.3468541648868</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755379</v>
+        <v>1584.314837422906</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1215.352320482494</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082163</v>
+        <v>1215.352320482494</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>829.5640678842501</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>418.5781630946425</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2354.684526795312</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7742,10 +7742,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11153,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>131.4663577634659</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>210.6436446313799</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>4.732187490914185</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>56.01837628787223</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>75.4910554809703</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>83.12091415361559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>62.45749068994752</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>233.2685130016731</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9.731856848937532</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.6309576570398</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>112.6268434222568</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>78.47030793157802</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>102.9205940660611</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>86.63563604841306</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>199.6921015437991</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>230.160380110639</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684542</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>63.37316471551381</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>57.48477830283335</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>173.8034202382693</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>51.79469286292851</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>308.6740044339424</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>123.991948819911</v>
+        <v>59.09000012742561</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>410.5584088127694</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>147.4718178824608</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.883847451502</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>57.30736471423023</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>168.8276855108788</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>25.04483148914571</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5440971422199</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>223.7770919632448</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>306.7451116554072</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>25.16398464933172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>250.3458772652717</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>242.8007662357191</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V40" t="n">
-        <v>96.92615468724699</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>102.9205940660614</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>244.9183796674363</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.991948819911</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629428</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>52.79534055925967</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>10.20105013673145</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="G2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="E2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="H2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149698</v>
@@ -26340,22 +26340,22 @@
         <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
         <v>9371.018034361483</v>
@@ -26429,7 +26429,7 @@
         <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361483</v>
@@ -26438,16 +26438,16 @@
         <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="J4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361485</v>
@@ -26456,10 +26456,10 @@
         <v>9371.018034361485</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,34 +26484,34 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="M5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="N5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407502.9957973456</v>
+        <v>-413571.4095431648</v>
       </c>
       <c r="C6" t="n">
-        <v>182464.8834171989</v>
+        <v>176396.4696713797</v>
       </c>
       <c r="D6" t="n">
-        <v>182464.883417199</v>
+        <v>176396.4696713795</v>
       </c>
       <c r="E6" t="n">
-        <v>216092.4834171989</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="F6" t="n">
-        <v>216092.4834171989</v>
+        <v>210024.0696713795</v>
       </c>
       <c r="G6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713798</v>
       </c>
       <c r="H6" t="n">
-        <v>216092.4834171987</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="I6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="J6" t="n">
-        <v>39669.26422460585</v>
+        <v>33600.85047878657</v>
       </c>
       <c r="K6" t="n">
-        <v>216092.4834171987</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="L6" t="n">
-        <v>216092.4834171986</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="M6" t="n">
-        <v>216092.4834171989</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="N6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="O6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713798</v>
       </c>
       <c r="P6" t="n">
-        <v>216092.4834171987</v>
+        <v>210024.0696713795</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26752,31 +26752,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26807,31 +26807,31 @@
         <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32232,43 +32232,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,43 +32706,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,43 +32943,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,25 +33119,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33827,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,28 +34064,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K41" t="n">
         <v>193.1674799081577</v>
@@ -34143,25 +34143,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N42" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479577</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N43" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>130.3926104730631</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>401.1632560839194</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36530,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36767,10 +36767,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343422</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N43" t="n">
         <v>148.370846145888</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
